--- a/website/files/dataset.xlsx
+++ b/website/files/dataset.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
